--- a/results/mp/tinybert/corona/confidence/126/desired-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/desired-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,109 +46,103 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>free</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>thank</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>good</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>energy</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>hope</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>please</t>
   </si>
 </sst>
 </file>
@@ -506,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,10 +508,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -575,13 +569,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.96</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -596,16 +590,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -625,13 +619,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.7945205479452054</v>
       </c>
       <c r="C4">
-        <v>133</v>
+        <v>232</v>
       </c>
       <c r="D4">
-        <v>133</v>
+        <v>232</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -643,19 +637,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -667,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -675,13 +669,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.75</v>
+        <v>0.1534391534391534</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -693,19 +687,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -725,13 +719,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7142857142857143</v>
+        <v>0.1492248062015504</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -743,19 +737,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>439</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K6">
-        <v>0.95</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L6">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="M6">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -767,95 +761,47 @@
         <v>0</v>
       </c>
       <c r="Q6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>0.9661016949152542</v>
+      </c>
+      <c r="L7">
+        <v>57</v>
+      </c>
+      <c r="M7">
+        <v>57</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.4377682403433477</v>
-      </c>
-      <c r="C7">
-        <v>102</v>
-      </c>
-      <c r="D7">
-        <v>102</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>131</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7">
-        <v>0.9375</v>
-      </c>
-      <c r="L7">
-        <v>15</v>
-      </c>
-      <c r="M7">
-        <v>15</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-    </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.2</v>
-      </c>
-      <c r="C8">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>16</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>64</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K8">
-        <v>0.9310344827586207</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L8">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -871,41 +817,17 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.186046511627907</v>
-      </c>
-      <c r="C9">
-        <v>16</v>
-      </c>
-      <c r="D9">
-        <v>16</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>70</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.9019607843137255</v>
+        <v>0.9017857142857143</v>
       </c>
       <c r="L9">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="M9">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -917,21 +839,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.896551724137931</v>
+        <v>0.8974358974358975</v>
       </c>
       <c r="L10">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="M10">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -943,21 +865,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.8888888888888888</v>
+        <v>0.8943661971830986</v>
       </c>
       <c r="L11">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="M11">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -969,21 +891,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.8888888888888888</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="L12">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="M12">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -995,21 +917,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.8823529411764706</v>
+        <v>0.8780487804878049</v>
       </c>
       <c r="L13">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="M13">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1021,21 +943,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.8823529411764706</v>
+        <v>0.875</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1047,21 +969,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.88</v>
+        <v>0.8431372549019608</v>
       </c>
       <c r="L15">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="M15">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1073,21 +995,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.875</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L16">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1099,21 +1021,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.875</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L17">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="M17">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1125,21 +1047,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.8717948717948718</v>
+        <v>0.78125</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1151,21 +1073,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.84</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L19">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="M19">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1177,21 +1099,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.8181818181818182</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L20">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="M20">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1203,21 +1125,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.8076923076923077</v>
+        <v>0.7441253263707572</v>
       </c>
       <c r="L21">
-        <v>21</v>
+        <v>285</v>
       </c>
       <c r="M21">
-        <v>21</v>
+        <v>285</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1229,21 +1151,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.7808219178082192</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="L22">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="M22">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1255,21 +1177,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.7793427230046949</v>
+        <v>0.7</v>
       </c>
       <c r="L23">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1281,21 +1203,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.7368421052631579</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L24">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1307,21 +1229,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.6976744186046512</v>
+        <v>0.6372881355932203</v>
       </c>
       <c r="L25">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="M25">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1333,21 +1255,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>39</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.6666666666666666</v>
+        <v>0.6179775280898876</v>
       </c>
       <c r="L26">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="M26">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1359,21 +1281,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.6597222222222222</v>
+        <v>0.5970588235294118</v>
       </c>
       <c r="L27">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="M27">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1385,21 +1307,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>49</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>0.6363636363636364</v>
+        <v>0.5564853556485355</v>
       </c>
       <c r="L28">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="M28">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1411,21 +1333,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>8</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>0.5714285714285714</v>
+        <v>0.5205479452054794</v>
       </c>
       <c r="L29">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="M29">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1437,21 +1359,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K30">
-        <v>0.5428571428571428</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1463,21 +1385,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K31">
-        <v>0.2282608695652174</v>
+        <v>0.484375</v>
       </c>
       <c r="L31">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M31">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1489,7 +1411,33 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>71</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32">
+        <v>0.4461538461538462</v>
+      </c>
+      <c r="L32">
+        <v>29</v>
+      </c>
+      <c r="M32">
+        <v>29</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
